--- a/ejemplo XY.xlsx
+++ b/ejemplo XY.xlsx
@@ -187,13 +187,13 @@
     <t>ETIQUETA</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>DIMENSION</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>Sexo</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,13 +553,13 @@
         <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
